--- a/src/assets/data/9_Financiera/Formatos/GF-FOR-027 Reintegro de caja menor.xlsx
+++ b/src/assets/data/9_Financiera/Formatos/GF-FOR-027 Reintegro de caja menor.xlsx
@@ -1079,7 +1079,7 @@
     <xdr:ext cx="685800" cy="552450"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1107,7 +1107,7 @@
     <xdr:ext cx="847725" cy="523875"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1131,7 +1131,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1218,7 +1218,7 @@
       <c r="D5" s="24"/>
       <c r="E5" s="29">
         <f>TODAY()</f>
-        <v>43649</v>
+        <v>43656</v>
       </c>
       <c r="F5" s="24"/>
       <c r="G5" s="30"/>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
+    <row r="27" ht="14.25" hidden="1" customHeight="1">
       <c r="A27" s="61"/>
       <c r="B27" s="62"/>
       <c r="C27" s="62"/>
@@ -1503,7 +1503,7 @@
       <c r="F27" s="63"/>
       <c r="G27" s="64"/>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
+    <row r="28" ht="14.25" hidden="1" customHeight="1">
       <c r="A28" s="65" t="s">
         <v>22</v>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="F28" s="53"/>
       <c r="G28" s="54"/>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
+    <row r="29" ht="14.25" hidden="1" customHeight="1">
       <c r="A29" s="68" t="s">
         <v>25</v>
       </c>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="G29" s="24"/>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
+    <row r="30" ht="14.25" hidden="1" customHeight="1">
       <c r="A30" s="74" t="s">
         <v>31</v>
       </c>
@@ -2571,25 +2571,25 @@
     <row r="997" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="E28:G28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A25:E26"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B4:D4"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A25:E26"/>
-    <mergeCell ref="A28:B28"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.1968503937007874" footer="0.0" header="0.0" left="0.1968503937007874" right="0.1968503937007874" top="0.1968503937007874"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup fitToHeight="0" orientation="portrait"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
